--- a/artfynd/A 56475-2019.xlsx
+++ b/artfynd/A 56475-2019.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112526854</v>
+        <v>112526859</v>
       </c>
       <c r="B2" t="n">
-        <v>93115</v>
+        <v>93307</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2779</v>
+        <v>2671</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Guldlockmossa</t>
+          <t>Fällmossa</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Homalothecium sericeum</t>
+          <t>Antitrichia curtipendula</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Hedw.) Schimp.</t>
+          <t>(Hedw.) Brid.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,14 +720,14 @@
       <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Asparna i branten, Karlstad, Vrm</t>
+          <t>Bergsbranten, Karlstad, Vrm</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>416673</v>
+        <v>416696</v>
       </c>
       <c r="R2" t="n">
-        <v>6595174</v>
+        <v>6595190</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -760,11 +760,6 @@
       <c r="AA2" t="inlineStr">
         <is>
           <t>2023-10-04</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>På grov asp</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -792,10 +787,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112526857</v>
+        <v>112526854</v>
       </c>
       <c r="B3" t="n">
-        <v>93318</v>
+        <v>93115</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,21 +803,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2667</v>
+        <v>2779</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Platt fjädermossa</t>
+          <t>Guldlockmossa</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Alleniella complanata</t>
+          <t>Homalothecium sericeum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Hedw.) S.Olsson, Enroth &amp; D.Quandt</t>
+          <t>(Hedw.) Schimp.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -876,7 +871,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>På grov asp tillsammans med guldlockmossa. Fjädermossan är däremot i dåligt skick av hygget intill</t>
+          <t>På grov asp</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -904,10 +899,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112526859</v>
+        <v>112526857</v>
       </c>
       <c r="B4" t="n">
-        <v>93307</v>
+        <v>93318</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -920,21 +915,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2671</v>
+        <v>2667</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Fällmossa</t>
+          <t>Platt fjädermossa</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Antitrichia curtipendula</t>
+          <t>Alleniella complanata</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Hedw.) Brid.</t>
+          <t>(Hedw.) S.Olsson, Enroth &amp; D.Quandt</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -944,14 +939,14 @@
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Bergsbranten, Karlstad, Vrm</t>
+          <t>Asparna i branten, Karlstad, Vrm</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>416696</v>
+        <v>416673</v>
       </c>
       <c r="R4" t="n">
-        <v>6595190</v>
+        <v>6595174</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -984,6 +979,11 @@
       <c r="AA4" t="inlineStr">
         <is>
           <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>På grov asp tillsammans med guldlockmossa. Fjädermossan är däremot i dåligt skick av hygget intill</t>
         </is>
       </c>
       <c r="AD4" t="b">
